--- a/Time sheet.xlsx
+++ b/Time sheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sobhan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sobhan\Desktop\Blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12156" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12156"/>
   </bookViews>
   <sheets>
     <sheet name="Sobhan Makki" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Mojtaba Razavi</t>
+  </si>
+  <si>
+    <t>logger and session</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>complete logger</t>
   </si>
 </sst>
 </file>
@@ -703,8 +712,8 @@
   </sheetPr>
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -763,11 +772,11 @@
       </c>
       <c r="C5" s="16">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>2.4999999999999938</v>
+        <v>7.5000000000000027</v>
       </c>
       <c r="D5" s="16">
         <f>IFERROR(IF(C5&lt;=WorkweekHours,C5,WorkweekHours),"")</f>
-        <v>2.4999999999999938</v>
+        <v>7.5000000000000027</v>
       </c>
       <c r="E5" s="3">
         <f>IFERROR(C5-D5, "")</f>
@@ -808,14 +817,14 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="E7" s="13">
-        <v>0.91666666666666696</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="F7" s="13">
         <v>0.97916666666666663</v>
       </c>
       <c r="G7" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Break End]]+TimeSheet[[#This Row],[Break Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>2.4999999999999938</v>
+        <v>2.5000000000000018</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>13</v>
@@ -825,29 +834,49 @@
       <c r="B8" s="12">
         <v>43303</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="13">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
       <c r="G8" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Break End]]+TimeSheet[[#This Row],[Break Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>43304</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G9" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Break End]]+TimeSheet[[#This Row],[Break Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="5"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
@@ -1217,7 +1246,7 @@
   </sheetPr>
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/Time sheet.xlsx
+++ b/Time sheet.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>complete logger</t>
+  </si>
+  <si>
+    <t>check infrastructure</t>
   </si>
 </sst>
 </file>
@@ -772,11 +775,11 @@
       </c>
       <c r="C5" s="16">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>7.5000000000000027</v>
+        <v>9.5</v>
       </c>
       <c r="D5" s="16">
         <f>IFERROR(IF(C5&lt;=WorkweekHours,C5,WorkweekHours),"")</f>
-        <v>7.5000000000000027</v>
+        <v>9.5</v>
       </c>
       <c r="E5" s="3">
         <f>IFERROR(C5-D5, "")</f>
@@ -859,38 +862,48 @@
         <v>43304</v>
       </c>
       <c r="C9" s="13">
-        <v>0.875</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>18</v>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.86458333333333337</v>
       </c>
       <c r="F9" s="13">
-        <v>0.95833333333333337</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="G9" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Break End]]+TimeSheet[[#This Row],[Break Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>2.0000000000000009</v>
+        <v>1.9999999999999982</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>43305</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="C10" s="13">
+        <v>0.875</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="G10" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Break End]]+TimeSheet[[#This Row],[Break Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="5"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="12">

--- a/Time sheet.xlsx
+++ b/Time sheet.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -104,7 +104,10 @@
     <t>complete logger</t>
   </si>
   <si>
-    <t>check infrastructure</t>
+    <t>design login/signup page</t>
+  </si>
+  <si>
+    <t>session and authentication</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -725,8 +728,9 @@
     <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
@@ -775,11 +779,11 @@
       </c>
       <c r="C5" s="16">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="D5" s="16">
         <f>IFERROR(IF(C5&lt;=WorkweekHours,C5,WorkweekHours),"")</f>
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3">
         <f>IFERROR(C5-D5, "")</f>
@@ -909,15 +913,25 @@
       <c r="B11" s="12">
         <v>43306</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="C11" s="13">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.25</v>
+      </c>
       <c r="G11" s="14">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Break End]]+TimeSheet[[#This Row],[Break Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
